--- a/data/GreatLink/GreatLink Dynamic Secure Portfolio.xlsx
+++ b/data/GreatLink/GreatLink Dynamic Secure Portfolio.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid20449"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid433663"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,13 +26,67 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>04/11/2025</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t>30/10/2025</t>
+  </si>
+  <si>
+    <t>29/10/2025</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>28/10/2025</t>
+  </si>
+  <si>
+    <t>27/10/2025</t>
+  </si>
+  <si>
+    <t>24/10/2025</t>
+  </si>
+  <si>
+    <t>23/10/2025</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>22/10/2025</t>
+  </si>
+  <si>
+    <t>21/10/2025</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>17/10/2025</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
     <t>16/10/2025</t>
   </si>
   <si>
     <t>0.949</t>
-  </si>
-  <si>
-    <t>SGD</t>
   </si>
   <si>
     <t>15/10/2025</t>
@@ -391,9 +445,141 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Dynamic Secure Portfolio.xlsx
+++ b/data/GreatLink/GreatLink Dynamic Secure Portfolio.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid433663"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid805635"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,102 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>01/12/2025</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>27/11/2025</t>
+  </si>
+  <si>
+    <t>26/11/2025</t>
+  </si>
+  <si>
+    <t>25/11/2025</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>24/11/2025</t>
+  </si>
+  <si>
+    <t>21/11/2025</t>
+  </si>
+  <si>
+    <t>20/11/2025</t>
+  </si>
+  <si>
+    <t>19/11/2025</t>
+  </si>
+  <si>
+    <t>18/11/2025</t>
+  </si>
+  <si>
+    <t>17/11/2025</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>13/11/2025</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>12/11/2025</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>10/11/2025</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>05/11/2025</t>
+  </si>
+  <si>
     <t>04/11/2025</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>03/11/2025</t>
   </si>
   <si>
@@ -50,9 +137,6 @@
     <t>29/10/2025</t>
   </si>
   <si>
-    <t>0.954</t>
-  </si>
-  <si>
     <t>28/10/2025</t>
   </si>
   <si>
@@ -74,9 +158,6 @@
     <t>21/10/2025</t>
   </si>
   <si>
-    <t>0.951</t>
-  </si>
-  <si>
     <t>17/10/2025</t>
   </si>
   <si>
@@ -84,9 +165,6 @@
   </si>
   <si>
     <t>16/10/2025</t>
-  </si>
-  <si>
-    <t>0.949</t>
   </si>
   <si>
     <t>15/10/2025</t>
@@ -456,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -464,7 +542,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -475,10 +553,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -489,7 +567,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -500,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -508,7 +586,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -519,10 +597,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -533,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -544,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -552,10 +630,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -563,10 +641,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -574,12 +652,243 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Dynamic Secure Portfolio.xlsx
+++ b/data/GreatLink/GreatLink Dynamic Secure Portfolio.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid805635"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid528019"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,25 +26,112 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>07/01/2026</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>06/01/2026</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>05/01/2026</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>02/01/2026</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>30/12/2025</t>
+  </si>
+  <si>
+    <t>29/12/2025</t>
+  </si>
+  <si>
+    <t>26/12/2025</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>24/12/2025</t>
+  </si>
+  <si>
+    <t>23/12/2025</t>
+  </si>
+  <si>
+    <t>22/12/2025</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>19/12/2025</t>
+  </si>
+  <si>
+    <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>17/12/2025</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>16/12/2025</t>
+  </si>
+  <si>
+    <t>15/12/2025</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
+  </si>
+  <si>
+    <t>11/12/2025</t>
+  </si>
+  <si>
+    <t>10/12/2025</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t>08/12/2025</t>
+  </si>
+  <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>04/12/2025</t>
+  </si>
+  <si>
     <t>03/12/2025</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/12/2025</t>
   </si>
   <si>
-    <t>0.944</t>
-  </si>
-  <si>
     <t>01/12/2025</t>
-  </si>
-  <si>
-    <t>0.943</t>
   </si>
   <si>
     <t>28/11/2025</t>
@@ -545,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -556,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -564,10 +651,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -575,10 +662,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -589,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -597,10 +684,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -608,10 +695,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -619,10 +706,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -630,10 +717,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -641,10 +728,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -652,10 +739,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -663,10 +750,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -674,10 +761,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -685,10 +772,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -696,10 +783,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -707,10 +794,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -721,7 +808,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -732,7 +819,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -743,7 +830,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -754,7 +841,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -762,10 +849,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -773,10 +860,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -784,10 +871,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -795,10 +882,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -806,10 +893,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -817,10 +904,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -828,10 +915,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
         <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -839,10 +926,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -850,10 +937,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -861,10 +948,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -872,10 +959,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -883,12 +970,265 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Dynamic Secure Portfolio.xlsx
+++ b/data/GreatLink/GreatLink Dynamic Secure Portfolio.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid528019"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid263360"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,87 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>02/02/2026</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>30/01/2026</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>29/01/2026</t>
+  </si>
+  <si>
+    <t>28/01/2026</t>
+  </si>
+  <si>
+    <t>27/01/2026</t>
+  </si>
+  <si>
+    <t>26/01/2026</t>
+  </si>
+  <si>
+    <t>23/01/2026</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>22/01/2026</t>
+  </si>
+  <si>
+    <t>21/01/2026</t>
+  </si>
+  <si>
+    <t>20/01/2026</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>19/01/2026</t>
+  </si>
+  <si>
+    <t>16/01/2026</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>15/01/2026</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>14/01/2026</t>
+  </si>
+  <si>
+    <t>13/01/2026</t>
+  </si>
+  <si>
+    <t>12/01/2026</t>
+  </si>
+  <si>
+    <t>09/01/2026</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>08/01/2026</t>
+  </si>
+  <si>
     <t>07/01/2026</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>06/01/2026</t>
   </si>
   <si>
@@ -44,18 +116,12 @@
     <t>05/01/2026</t>
   </si>
   <si>
-    <t>0.944</t>
-  </si>
-  <si>
     <t>02/01/2026</t>
   </si>
   <si>
     <t>31/12/2025</t>
   </si>
   <si>
-    <t>0.942</t>
-  </si>
-  <si>
     <t>30/12/2025</t>
   </si>
   <si>
@@ -146,9 +212,6 @@
     <t>25/11/2025</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
     <t>24/11/2025</t>
   </si>
   <si>
@@ -167,9 +230,6 @@
     <t>17/11/2025</t>
   </si>
   <si>
-    <t>0.948</t>
-  </si>
-  <si>
     <t>14/11/2025</t>
   </si>
   <si>
@@ -195,9 +255,6 @@
   </si>
   <si>
     <t>07/11/2025</t>
-  </si>
-  <si>
-    <t>0.949</t>
   </si>
   <si>
     <t>06/11/2025</t>
@@ -621,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -629,10 +686,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -640,10 +697,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -651,10 +708,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -662,10 +719,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -673,10 +730,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -684,10 +741,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -695,10 +752,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -706,10 +763,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -717,7 +774,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -728,10 +785,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -739,10 +796,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -750,10 +807,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -761,10 +818,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -772,10 +829,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -783,10 +840,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -794,10 +851,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -805,10 +862,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -816,10 +873,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -827,10 +884,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -838,10 +895,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -849,10 +906,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -860,10 +917,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -871,10 +928,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
         <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -885,7 +942,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -896,7 +953,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -907,7 +964,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -915,10 +972,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
         <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -929,7 +986,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -937,10 +994,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -948,10 +1005,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -959,10 +1016,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -970,10 +1027,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -981,10 +1038,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -992,10 +1049,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1003,10 +1060,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1014,10 +1071,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1028,7 +1085,7 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1036,10 +1093,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1047,10 +1104,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1058,10 +1115,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1069,10 +1126,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1080,10 +1137,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1091,10 +1148,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1102,10 +1159,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1113,10 +1170,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1124,10 +1181,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1135,10 +1192,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1146,10 +1203,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1157,10 +1214,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1168,10 +1225,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1179,10 +1236,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1190,10 +1247,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1201,10 +1258,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1212,10 +1269,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1223,12 +1280,210 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
         <v>5</v>
       </c>
     </row>
